--- a/Data_frame/balancos_definitivos/LECO3.xlsx
+++ b/Data_frame/balancos_definitivos/LECO3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG80"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,86 +649,6 @@
           <t>30/09/2008</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2012</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2012</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2012</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2013</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2013</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2013</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2014</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2014</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2014</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2015</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2015</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2015</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2016</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -862,54 +782,6 @@
       <c r="AQ2" t="n">
         <v>229063.008</v>
       </c>
-      <c r="AR2" t="n">
-        <v>14008344.576</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>39702425.6</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>41556844.544</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>42082340.864</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>42010640.384</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>48138125.312</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>49551347.712</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>53015724.032</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>49059254.272</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>47766065.152</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>50606284.8</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>54410743.808</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>60598095.872</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>60073934.848</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>71412981.76000001</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>66308878.336</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1043,54 +915,6 @@
       <c r="AQ3" t="n">
         <v>56243</v>
       </c>
-      <c r="AR3" t="n">
-        <v>2172388.096</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>7299571.2</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>7039111.168</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6840848.896</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>6256683.008</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>8246648.832</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>9570967.551999999</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>11665091.584</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>9503453.184</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>8561353.216</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>8810307.584000001</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>9654288.384</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>9860034.560000001</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>10718455.808</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>12744070.144</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>9830005.76</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1224,54 +1048,6 @@
       <c r="AQ4" t="n">
         <v>265</v>
       </c>
-      <c r="AR4" t="n">
-        <v>321726.016</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>924840</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>1066225.024</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>1328812.032</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>919723.008</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>1752381.952</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>2283956.992</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>4649833.984</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>2628110.08</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>2435500.032</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>1839006.976</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>2628034.048</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>3076985.088</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>3332101.888</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>4063983.104</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>2733234.944</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1405,54 +1181,6 @@
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
-      <c r="AR5" t="n">
-        <v>399884.992</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1804247.04</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1318172.032</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1300775.936</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>853955.968</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>1197113.984</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1868264.96</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1663115.008</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1829905.024</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>1453778.048</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>1288531.968</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>1727595.008</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>1505688.064</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>1759233.024</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>2337161.984</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>2152248.064</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1586,54 +1314,6 @@
       <c r="AQ6" t="n">
         <v>35889</v>
       </c>
-      <c r="AR6" t="n">
-        <v>989844.992</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>3527432.96</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3612837.888</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>2945740.032</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>3106417.92</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3788470.016</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>3899785.984</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>3827156.992</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>3509424.128</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>3232881.92</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>4198543.872</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>3663284.992</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>3263502.08</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>3567705.088</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>3879678.976</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>2901849.088</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1767,54 +1447,6 @@
       <c r="AQ7" t="n">
         <v>18750</v>
       </c>
-      <c r="AR7" t="n">
-        <v>155984.992</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>298255.008</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>347651.008</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>370452</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>409230.016</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>458775.008</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>518164.992</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>541206.0159999999</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>551628.992</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>559283.008</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>648377.9840000001</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>706652.992</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>755465.024</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>719185.9840000001</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>808532.992</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>816846.0159999999</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1948,54 +1580,6 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2129,54 +1713,6 @@
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
-      <c r="AR9" t="n">
-        <v>207687.008</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>547331.968</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>543841.024</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>450651.008</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>534636</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>517641.984</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>471544.992</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>191836</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>235384</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>223272</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>247256.992</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>267500.992</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>237594</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>234912.992</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>283939.008</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>237912.992</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2310,54 +1846,6 @@
       <c r="AQ10" t="n">
         <v>0</v>
       </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2491,54 +1979,6 @@
       <c r="AQ11" t="n">
         <v>1339</v>
       </c>
-      <c r="AR11" t="n">
-        <v>97260</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>197464</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>150384</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>444417.984</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>432720</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>532265.9840000001</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>529249.9840000001</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>791944</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>749001.024</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>656638.0159999999</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>588590.0159999999</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>661219.968</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>1020801.024</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>1105316.992</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>1370774.016</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>987915.008</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2672,54 +2112,6 @@
       <c r="AQ12" t="n">
         <v>49190</v>
       </c>
-      <c r="AR12" t="n">
-        <v>295464.992</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1615469.952</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>1772205.952</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>1199037.952</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>1238801.024</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>1517648</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>1407346.944</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>1970834.944</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>2138822.016</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>2073502.976</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>2117699.968</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>2346088.96</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>2720884.992</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>2365477.888</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>2692581.12</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>2905518.08</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2853,54 +2245,6 @@
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3034,54 +2378,6 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-      <c r="AR14" t="n">
-        <v>46866</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>189424</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>209670</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>151412.992</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>149090</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>177068.992</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>157888</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>152946</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>159978</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>150631.008</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>165668</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>225740</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>256132.992</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>260314</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>262227.008</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>366827.008</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3215,54 +2511,6 @@
       <c r="AQ15" t="n">
         <v>25923</v>
       </c>
-      <c r="AR15" t="n">
-        <v>12888</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>38568</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>63424</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>103426</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>139691.008</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>191036</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>164422</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>236076</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>181490</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>133996</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>100601</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>80921</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>94925</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>28020</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>39288</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>24962</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3396,54 +2644,6 @@
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3577,54 +2777,6 @@
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3758,54 +2910,6 @@
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
-      <c r="AR18" t="n">
-        <v>131202</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>548326.0159999999</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>648660.992</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>295548.992</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>294769.984</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>519832.992</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>473491.008</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>943979.008</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>926529.024</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>1010440</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>981796.992</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>1081931.008</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>1118168.064</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>930296</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>1224359.936</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>1320116.992</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3939,54 +3043,6 @@
       <c r="AQ19" t="n">
         <v>0</v>
       </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4120,54 +3176,6 @@
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4301,54 +3309,6 @@
       <c r="AQ21" t="n">
         <v>23267</v>
       </c>
-      <c r="AR21" t="n">
-        <v>104509</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>839152</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>850451.008</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>648649.9840000001</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>655249.9840000001</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>629710.0159999999</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>611545.9840000001</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>637833.9840000001</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>870825.024</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>778435.968</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>869633.9840000001</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>957497.024</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>1251659.008</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>1146848</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>1166706.048</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>1193612.032</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4482,54 +3442,6 @@
       <c r="AQ22" t="n">
         <v>0</v>
       </c>
-      <c r="AR22" t="n">
-        <v>1121</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>1835</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>8011</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7677</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>5915</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>16014</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>15010</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>15452</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>7685</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>6286</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>4507</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4663,54 +3575,6 @@
       <c r="AQ23" t="n">
         <v>121414</v>
       </c>
-      <c r="AR23" t="n">
-        <v>11096037.376</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>22541393.92</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>24225376.256</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>24108986.368</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>24166584.32</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>24858851.328</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>25070655.488</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>25728274.432</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>23789496.32</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>23512281.088</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>25995331.584</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>28615444.48</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>34126088.192</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>33124462.592</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>41945919.488</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>39563272.192</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4844,54 +3708,6 @@
       <c r="AQ24" t="n">
         <v>2184</v>
       </c>
-      <c r="AR24" t="n">
-        <v>443334.016</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>8244152.832</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>8512138.752</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>9925790.720000001</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>10342654.976</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>13498959.872</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>13487365.12</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>13636070.4</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>13619799.04</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>13612641.28</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>13678437.376</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>13794922.496</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>13891086.336</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>13865537.536</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>14030415.872</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>14010083.328</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5025,54 +3841,6 @@
       <c r="AQ25" t="n">
         <v>32</v>
       </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5206,54 +3974,6 @@
       <c r="AQ26" t="n">
         <v>229063.008</v>
       </c>
-      <c r="AR26" t="n">
-        <v>14008344.576</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>39702425.6</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>41556844.544</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>42082340.864</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>42010640.384</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>48138125.312</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>49551347.712</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>53015724.032</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>49059254.272</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>47766065.152</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>50606284.8</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>54410743.808</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>60598095.872</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>60073934.848</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>71412981.76000001</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>66308878.336</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5387,54 +4107,6 @@
       <c r="AQ27" t="n">
         <v>68817</v>
       </c>
-      <c r="AR27" t="n">
-        <v>4073437.952</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>10728602.624</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>11334060.032</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>11812020.224</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>10885593.088</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>14364538.88</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>15705626.624</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>15248234.496</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>13303301.12</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>13096281.088</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>14609249.28</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>15484934.144</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>16923752.448</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>17660395.52</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>21579128.832</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>19899803.648</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5568,54 +4240,6 @@
       <c r="AQ28" t="n">
         <v>0</v>
       </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5749,54 +4373,6 @@
       <c r="AQ29" t="n">
         <v>24030</v>
       </c>
-      <c r="AR29" t="n">
-        <v>1180969.984</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>2833753.088</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3182990.08</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>3377812.992</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>3239623.936</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>3499464.96</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>3496840.96</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>3649152</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>3474417.92</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>3544395.008</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>4000740.096</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>3956133.888</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>4363601.92</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>4669211.136</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>5524441.088</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>5170502.144</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5930,54 +4506,6 @@
       <c r="AQ30" t="n">
         <v>16289</v>
       </c>
-      <c r="AR30" t="n">
-        <v>74294</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>187207.008</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>208104</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>235984.992</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>233488</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>237698</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>244002</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>27134</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>68383</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>28912</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>38694</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>47517</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>64962</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>50672</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>77249</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>91816</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6111,54 +4639,6 @@
       <c r="AQ31" t="n">
         <v>18219</v>
       </c>
-      <c r="AR31" t="n">
-        <v>1105676.032</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>3553588.992</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>3712529.92</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>4183718.912</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>3739279.872</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>5070482.944</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>6134446.08</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>4778404.864</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>3441932.032</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>3352968.96</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>3828800</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>4315301.888</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>5075419.136</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>4782992.896</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>6472163.84</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>5842158.08</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6292,54 +4772,6 @@
       <c r="AQ32" t="n">
         <v>5284</v>
       </c>
-      <c r="AR32" t="n">
-        <v>435</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>1124</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>658</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>560</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>346</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>383</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>524</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>1183</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>1346</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>914</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>848</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>93</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>183</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>183</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>151</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>1680</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6473,54 +4905,6 @@
       <c r="AQ33" t="n">
         <v>0</v>
       </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6654,54 +5038,6 @@
       <c r="AQ34" t="n">
         <v>2712</v>
       </c>
-      <c r="AR34" t="n">
-        <v>1698651.008</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>4108472.064</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>4185539.072</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>3969560.064</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>3628704</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>5488132.096</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>5761204.224</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>6727105.024</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>6252403.2</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>6104734.208</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>6689176.064</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>7132921.856</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>7383461.888</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>8151224.832</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>9493268.48</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>8785105.92</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6835,54 +5171,6 @@
       <c r="AQ35" t="n">
         <v>2283</v>
       </c>
-      <c r="AR35" t="n">
-        <v>13412</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>44458</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>44239</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>44383</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>44151</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>68378</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>68610</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>65255</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>64819</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>64357</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>50991</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>32966</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>36125</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>6112</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>11855</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>8541</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7016,54 +5304,6 @@
       <c r="AQ36" t="n">
         <v>0</v>
       </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7197,54 +5437,6 @@
       <c r="AQ37" t="n">
         <v>54318</v>
       </c>
-      <c r="AR37" t="n">
-        <v>7149960.192</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>18336661.504</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>19755253.76</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>19707844.608</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>20346830.848</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>23311863.808</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>23217532.928</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>25289725.952</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>23167535.104</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>22232811.52</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>24079040.512</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>26963093.504</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>31452635.136</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>30437783.552</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>38103257.088</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>34747523.072</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7378,54 +5570,6 @@
       <c r="AQ38" t="n">
         <v>3435</v>
       </c>
-      <c r="AR38" t="n">
-        <v>5740299.776</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>13957785.6</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>15141068.8</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>15732614.144</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>16007604.224</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>16976984.064</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>16735332.352</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>18412800</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>16490659.84</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>15844618.24</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>17252788.224</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>19626694.656</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>23423019.008</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>22623846.4</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>29156679.68</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>27358701.568</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7559,54 +5703,6 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>93</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7740,54 +5836,6 @@
       <c r="AQ40" t="n">
         <v>47210</v>
       </c>
-      <c r="AR40" t="n">
-        <v>616486.976</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>1736557.056</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>1776333.056</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>1701328</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>1677636.992</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>2435982.08</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>2439887.104</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>2343664.128</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>2307415.04</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>1964952.064</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>2080562.944</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>2477849.088</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>2844826.112</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>2884972.032</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>3568832</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>2432276.992</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7921,54 +5969,6 @@
       <c r="AQ41" t="n">
         <v>0</v>
       </c>
-      <c r="AR41" t="n">
-        <v>722281.9840000001</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>2020716.032</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2215106.048</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>1140372.992</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>1251870.976</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>1199005.056</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>1249252.992</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>1797308.032</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>1720295.936</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>1758667.008</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>2125490.048</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>2794041.088</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>3055795.968</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>2777564.928</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>3177370.88</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>3050471.936</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8102,54 +6102,6 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8283,54 +6235,6 @@
       <c r="AQ43" t="n">
         <v>3673</v>
       </c>
-      <c r="AR43" t="n">
-        <v>70891</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>621510.0159999999</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>622745.9840000001</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>1133529.984</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>1409718.016</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>2699894.016</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>2793059.072</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>2735952.896</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>2649165.056</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>2664574.976</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>2620197.888</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>2064509.952</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>2128994.944</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>2151401.984</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>2200370.944</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>1906072.064</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8464,54 +6368,6 @@
       <c r="AQ44" t="n">
         <v>0</v>
       </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8645,54 +6501,6 @@
       <c r="AQ45" t="n">
         <v>0</v>
       </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8826,54 +6634,6 @@
       <c r="AQ46" t="n">
         <v>0</v>
       </c>
-      <c r="AR46" t="n">
-        <v>17031</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>204488.992</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>80946</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>54629</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>42068</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>207668</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>206800.992</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>205300.992</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>192780</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>183898</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>242975.008</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>270399.008</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>290176.992</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>306880.992</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>312580</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>304577.984</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9007,54 +6767,6 @@
       <c r="AQ47" t="n">
         <v>105928</v>
       </c>
-      <c r="AR47" t="n">
-        <v>2767915.944</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>10432669.408</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>10386583.728</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>10507847.032</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>10736148.448</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>10254051.552</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>10421388.192</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>12272461.568</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>12395639.072</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>12253073.52</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>11675022.048</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>11692316.128</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>11931527.2</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>11668871.712</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>11418023.008</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>11356975.68</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9188,54 +6900,6 @@
       <c r="AQ48" t="n">
         <v>33700</v>
       </c>
-      <c r="AR48" t="n">
-        <v>857467.008</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>2809187.072</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>2802292.992</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>2944235.008</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>3152691.968</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>3152270.08</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>3152270.08</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>4935153.152</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>5304885.248</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>5304885.248</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>5304885.248</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>5304885.248</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>5304885.248</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>5304885.248</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>5304885.248</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>5304885.248</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9369,54 +7033,6 @@
       <c r="AQ49" t="n">
         <v>25</v>
       </c>
-      <c r="AR49" t="n">
-        <v>12336</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>12336</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>14564</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>9103</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>9928</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>25406</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>34274</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>42654</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>49712</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>59409</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>61358</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>62564</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>68672</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>74529</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>73733</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>85410</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9550,54 +7166,6 @@
       <c r="AQ50" t="n">
         <v>69408</v>
       </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9731,54 +7299,6 @@
       <c r="AQ51" t="n">
         <v>13997</v>
       </c>
-      <c r="AR51" t="n">
-        <v>3201</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>3201</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>-1908</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>3553</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>-31995</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>-32078</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>-32544</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>-17766</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>-15264</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>-16080</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>-59305</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>-68904</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>-63370</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>-64369</v>
-      </c>
-      <c r="BF51" t="n">
-        <v>-55004</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>-5111648.768</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9912,54 +7432,6 @@
       <c r="AQ52" t="n">
         <v>-11202</v>
       </c>
-      <c r="AR52" t="n">
-        <v>2080211.968</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>2112067.968</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>2023036.032</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>1947874.048</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>2028472.064</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>1312988.032</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>1431721.984</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>1304465.024</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>1206696.96</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>1075346.944</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>488580</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>740689.9840000001</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>627548.032</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>478335.008</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>76856</v>
-      </c>
-      <c r="BG52" t="n">
-        <v>290520.992</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10093,54 +7565,6 @@
       <c r="AQ53" t="n">
         <v>0</v>
       </c>
-      <c r="AR53" t="n">
-        <v>-185300</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>5495877.12</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>5548598.784</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>5603082.24</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>5577051.136</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>5795466.24</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>5835665.92</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>6007955.968</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>5849609.216</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>5829513.216</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>5879503.872</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>5653081.088</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>5993792</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>5875491.84</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>6017552.896</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>10787809.28</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10274,54 +7698,6 @@
       <c r="AQ54" t="n">
         <v>0</v>
       </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10455,54 +7831,6 @@
       <c r="AQ55" t="n">
         <v>0</v>
       </c>
-      <c r="AR55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10636,54 +7964,6 @@
       <c r="AQ56" t="n">
         <v>0</v>
       </c>
-      <c r="AR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10813,54 +8093,6 @@
       <c r="AQ57" t="n">
         <v>103042</v>
       </c>
-      <c r="AR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10990,54 +8222,6 @@
       <c r="AQ58" t="n">
         <v>-17982</v>
       </c>
-      <c r="AR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11167,54 +8351,6 @@
       <c r="AQ59" t="n">
         <v>85060</v>
       </c>
-      <c r="AR59" t="n">
-        <v>2666053.12</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>3040957.952</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>6624348.16</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>7001063.424</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>6655713.792</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>6215629.824</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>7481717.248</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>7539083.264</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>7311470.08</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>6623930.88</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>6931763.2</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>7589791.744</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>7731938.816</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>7103264.768</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>8574142.976</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>8718518.272</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11344,54 +8480,6 @@
       <c r="AQ60" t="n">
         <v>-76048</v>
       </c>
-      <c r="AR60" t="n">
-        <v>-1981504</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>-2405357.056</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-5257759.232</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>-5569794.048</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>-5403732.992</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>-5029173.248</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>-5568671.232</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>-5643914.24</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>-5808244.224</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>-5385209.856</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>-5550063.104</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>-5884510.208</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>-5847455.744</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>-5917678.08</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>-6742241.792</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>-6483403.776</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11521,54 +8609,6 @@
       <c r="AQ61" t="n">
         <v>9012</v>
       </c>
-      <c r="AR61" t="n">
-        <v>684548.992</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>635601.024</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>1366589.056</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>1431271.168</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>1251981.056</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>1186456.96</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>1913046.016</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>1895168</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>1503225.984</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>1238721.024</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>1381699.968</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>1705283.072</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>1884482.944</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>1185586.944</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>1831901.056</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>2235113.984</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11698,54 +8738,6 @@
       <c r="AQ62" t="n">
         <v>-9401</v>
       </c>
-      <c r="AR62" t="n">
-        <v>-243084</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>-285851.008</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>-546620.032</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>-517113.984</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>-501140</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>-490780.992</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>-601876.992</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>-624223.232</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>-592929.9840000001</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>-582560</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>-569801.024</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>-494960.896</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>-633236.992</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>311121.984</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>323222.016</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>-685644.032</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11875,54 +8867,6 @@
       <c r="AQ63" t="n">
         <v>-1541</v>
       </c>
-      <c r="AR63" t="n">
-        <v>-187592.992</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-257075.008</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-631836.992</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-660895.1040000001</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-471436.992</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-588888</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-714907.008</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-688402.944</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>-604596.992</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>-599718.0159999999</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-513768.992</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>-585503.1040000001</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-717566.0159999999</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>-663024</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>-680644.992</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>-709540.992</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12052,54 +8996,6 @@
       <c r="AQ64" t="n">
         <v>0</v>
       </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE64" t="n">
-        <v>-517112</v>
-      </c>
-      <c r="BF64" t="n">
-        <v>-704849.024</v>
-      </c>
-      <c r="BG64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12229,54 +9125,6 @@
       <c r="AQ65" t="n">
         <v>17</v>
       </c>
-      <c r="AR65" t="n">
-        <v>57544</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>71038</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>168219.008</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>61343.968</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>162715.008</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>181868</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>131494</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>134718.016</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>12776</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>152562</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>196164</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>638721.9840000001</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>297088</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>-310299.008</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>-306033.984</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>378220</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12406,54 +9254,6 @@
       <c r="AQ66" t="n">
         <v>0</v>
       </c>
-      <c r="AR66" t="n">
-        <v>-111111</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>-120079</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>-178724.992</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>-205244.992</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>-205702</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>-218703.008</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>-221772</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>-234189.952</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>-243656.992</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>-204620</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>-242680</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>-253185.984</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>-161668</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>-349340.992</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12583,54 +9383,6 @@
       <c r="AQ67" t="n">
         <v>0</v>
       </c>
-      <c r="AR67" t="n">
-        <v>-678</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>575</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>310</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>1870</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>711</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>1073</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>2180</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>-7748</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>-680</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>-2022</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>-5049</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>114</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12760,54 +9512,6 @@
       <c r="AQ68" t="n">
         <v>-2231</v>
       </c>
-      <c r="AR68" t="n">
-        <v>-44056</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>90086</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>-144359.008</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>-199090.992</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>-94585</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>-1007902.016</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>-261580.992</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>-505689.984</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>-129805</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>-89534</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>-470081.984</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>-427387.968</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>-806377.9840000001</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>-188979.008</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>-1120571.008</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>-94772</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12937,54 +9641,6 @@
       <c r="AQ69" t="n">
         <v>-201</v>
       </c>
-      <c r="AR69" t="n">
-        <v>20909</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>176071.008</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>69170</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>24913.984</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>125506</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>-767577.024</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>-1219</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>-227637.952</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>180946</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>162482</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>-274632</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>-173812.992</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>-532751.008</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>149804.992</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>-738792</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>307345.984</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13114,54 +9770,6 @@
       <c r="AQ70" t="n">
         <v>-2030</v>
       </c>
-      <c r="AR70" t="n">
-        <v>-64965</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>-85985</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-213528.992</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-224004.992</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>-220091.008</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>-240324.992</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>-260362</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>-278052.032</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>-310751.008</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>-252016</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>-195450</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>-253575.04</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>-273627.008</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>-338784</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>-381779.008</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>-402118.016</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13291,54 +9899,6 @@
       <c r="AQ71" t="n">
         <v>0</v>
       </c>
-      <c r="AR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13468,54 +10028,6 @@
       <c r="AQ72" t="n">
         <v>0</v>
       </c>
-      <c r="AR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13645,54 +10157,6 @@
       <c r="AQ73" t="n">
         <v>0</v>
       </c>
-      <c r="AR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13822,54 +10286,6 @@
       <c r="AQ74" t="n">
         <v>-4144</v>
       </c>
-      <c r="AR74" t="n">
-        <v>155571.008</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>134295.008</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>33577</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>-87860</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>142543.008</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>-937598.0159999999</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>245476</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>-20440</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>-62735</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>-85829</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>-220490</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>577918.0159999999</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>-137278</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>-182591.008</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>-656976</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>774035.968</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13999,54 +10415,6 @@
       <c r="AQ75" t="n">
         <v>0</v>
       </c>
-      <c r="AR75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14176,54 +10544,6 @@
       <c r="AQ76" t="n">
         <v>706</v>
       </c>
-      <c r="AR76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -14353,54 +10673,6 @@
       <c r="AQ77" t="n">
         <v>0</v>
       </c>
-      <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -14530,54 +10802,6 @@
       <c r="AQ78" t="n">
         <v>0</v>
       </c>
-      <c r="AR78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -14707,54 +10931,6 @@
       <c r="AQ79" t="n">
         <v>0</v>
       </c>
-      <c r="AR79" t="n">
-        <v>4716</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>1962</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>-15226</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>-19736</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>8516</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>-14440</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>-7132</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>-26045</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>-5558</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>-8878</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>-34075</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>-29256</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>-44982</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>-11391</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>-34867</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>-53944</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14883,54 +11059,6 @@
       </c>
       <c r="AQ80" t="n">
         <v>-3438</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>134650</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>97663</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>-129224</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>-98006</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>85390</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>-681854.0159999999</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>119189</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>-104856</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>-97761</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>-131343</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>-586881.024</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>250004.032</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>-114657</v>
-      </c>
-      <c r="BE80" t="n">
-        <v>-152804.992</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>-401008</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>398836</v>
       </c>
     </row>
   </sheetData>
